--- a/Crawling/music/crawled_data/mod_melon/live_melon_20220412.xlsx
+++ b/Crawling/music/crawled_data/mod_melon/live_melon_20220412.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>melon</t>
+    <t>Melon</t>
   </si>
   <si>
     <t>2022-04-12</t>

--- a/Crawling/music/crawled_data/mod_melon/live_melon_20220412.xlsx
+++ b/Crawling/music/crawled_data/mod_melon/live_melon_20220412.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="270">
   <si>
     <t>사이트</t>
   </si>
@@ -818,6 +818,9 @@
   </si>
   <si>
     <t>BRAVE</t>
+  </si>
+  <si>
+    <t>D-Nation</t>
   </si>
   <si>
     <t>JYP</t>
@@ -3595,6 +3598,12 @@
       <c r="F93" t="s">
         <v>224</v>
       </c>
+      <c r="G93" t="s">
+        <v>268</v>
+      </c>
+      <c r="H93" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
@@ -3798,10 +3807,10 @@
         <v>228</v>
       </c>
       <c r="G101" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H101" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/Crawling/music/crawled_data/mod_melon/live_melon_20220412.xlsx
+++ b/Crawling/music/crawled_data/mod_melon/live_melon_20220412.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="269">
   <si>
     <t>사이트</t>
   </si>
@@ -742,7 +742,7 @@
     <t>빅플래닛메이드</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>SONY MUSIC</t>
@@ -776,9 +776,6 @@
   </si>
   <si>
     <t>빅히트</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>FNC</t>
@@ -1262,7 +1259,7 @@
         <v>230</v>
       </c>
       <c r="H3" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1340,7 +1337,7 @@
         <v>233</v>
       </c>
       <c r="H6" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1366,7 +1363,7 @@
         <v>234</v>
       </c>
       <c r="H7" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1392,7 +1389,7 @@
         <v>235</v>
       </c>
       <c r="H8" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1444,7 +1441,7 @@
         <v>234</v>
       </c>
       <c r="H10" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1470,7 +1467,7 @@
         <v>236</v>
       </c>
       <c r="H11" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1522,7 +1519,7 @@
         <v>237</v>
       </c>
       <c r="H13" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1548,7 +1545,7 @@
         <v>238</v>
       </c>
       <c r="H14" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1574,7 +1571,7 @@
         <v>239</v>
       </c>
       <c r="H15" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1600,7 +1597,7 @@
         <v>240</v>
       </c>
       <c r="H16" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1626,7 +1623,7 @@
         <v>235</v>
       </c>
       <c r="H17" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1652,7 +1649,7 @@
         <v>241</v>
       </c>
       <c r="H18" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1704,7 +1701,7 @@
         <v>242</v>
       </c>
       <c r="H20" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1730,7 +1727,7 @@
         <v>243</v>
       </c>
       <c r="H21" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1756,7 +1753,7 @@
         <v>244</v>
       </c>
       <c r="H22" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1782,7 +1779,7 @@
         <v>235</v>
       </c>
       <c r="H23" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1808,7 +1805,7 @@
         <v>245</v>
       </c>
       <c r="H24" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1834,7 +1831,7 @@
         <v>230</v>
       </c>
       <c r="H25" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1860,7 +1857,7 @@
         <v>235</v>
       </c>
       <c r="H26" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1886,7 +1883,7 @@
         <v>245</v>
       </c>
       <c r="H27" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1990,7 +1987,7 @@
         <v>246</v>
       </c>
       <c r="H31" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2016,7 +2013,7 @@
         <v>235</v>
       </c>
       <c r="H32" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2042,7 +2039,7 @@
         <v>235</v>
       </c>
       <c r="H33" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2094,7 +2091,7 @@
         <v>248</v>
       </c>
       <c r="H35" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2120,7 +2117,7 @@
         <v>235</v>
       </c>
       <c r="H36" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2146,7 +2143,7 @@
         <v>249</v>
       </c>
       <c r="H37" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2172,7 +2169,7 @@
         <v>245</v>
       </c>
       <c r="H38" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2198,7 +2195,7 @@
         <v>250</v>
       </c>
       <c r="H39" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2224,7 +2221,7 @@
         <v>251</v>
       </c>
       <c r="H40" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2250,7 +2247,7 @@
         <v>252</v>
       </c>
       <c r="H41" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2302,7 +2299,7 @@
         <v>235</v>
       </c>
       <c r="H43" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2325,10 +2322,10 @@
         <v>194</v>
       </c>
       <c r="G44" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="H44" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2377,10 +2374,10 @@
         <v>54</v>
       </c>
       <c r="G46" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H46" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2406,7 +2403,7 @@
         <v>244</v>
       </c>
       <c r="H47" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2432,7 +2429,7 @@
         <v>242</v>
       </c>
       <c r="H48" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2458,7 +2455,7 @@
         <v>241</v>
       </c>
       <c r="H49" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2484,7 +2481,7 @@
         <v>235</v>
       </c>
       <c r="H50" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2510,7 +2507,7 @@
         <v>236</v>
       </c>
       <c r="H51" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2637,10 +2634,10 @@
         <v>201</v>
       </c>
       <c r="G56" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H56" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2692,7 +2689,7 @@
         <v>242</v>
       </c>
       <c r="H58" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2741,10 +2738,10 @@
         <v>68</v>
       </c>
       <c r="G60" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H60" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2770,7 +2767,7 @@
         <v>245</v>
       </c>
       <c r="H61" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2796,7 +2793,7 @@
         <v>245</v>
       </c>
       <c r="H62" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2822,7 +2819,7 @@
         <v>245</v>
       </c>
       <c r="H63" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2845,10 +2842,10 @@
         <v>72</v>
       </c>
       <c r="G64" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H64" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2871,10 +2868,10 @@
         <v>206</v>
       </c>
       <c r="G65" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H65" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2900,7 +2897,7 @@
         <v>235</v>
       </c>
       <c r="H66" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2926,7 +2923,7 @@
         <v>244</v>
       </c>
       <c r="H67" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2949,10 +2946,10 @@
         <v>207</v>
       </c>
       <c r="G68" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="H68" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2978,7 +2975,7 @@
         <v>250</v>
       </c>
       <c r="H69" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3004,7 +3001,7 @@
         <v>244</v>
       </c>
       <c r="H70" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3030,7 +3027,7 @@
         <v>242</v>
       </c>
       <c r="H71" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3053,10 +3050,10 @@
         <v>80</v>
       </c>
       <c r="G72" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H72" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3105,10 +3102,10 @@
         <v>82</v>
       </c>
       <c r="G74" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H74" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3134,7 +3131,7 @@
         <v>248</v>
       </c>
       <c r="H75" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3157,10 +3154,10 @@
         <v>209</v>
       </c>
       <c r="G76" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H76" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3186,7 +3183,7 @@
         <v>234</v>
       </c>
       <c r="H77" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3209,10 +3206,10 @@
         <v>211</v>
       </c>
       <c r="G78" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H78" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3238,7 +3235,7 @@
         <v>249</v>
       </c>
       <c r="H79" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3261,10 +3258,10 @@
         <v>213</v>
       </c>
       <c r="G80" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H80" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3287,10 +3284,10 @@
         <v>214</v>
       </c>
       <c r="G81" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H81" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3339,10 +3336,10 @@
         <v>216</v>
       </c>
       <c r="G83" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H83" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3368,7 +3365,7 @@
         <v>244</v>
       </c>
       <c r="H84" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3394,7 +3391,7 @@
         <v>245</v>
       </c>
       <c r="H85" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3472,7 +3469,7 @@
         <v>242</v>
       </c>
       <c r="H88" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3498,7 +3495,7 @@
         <v>242</v>
       </c>
       <c r="H89" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3547,10 +3544,10 @@
         <v>222</v>
       </c>
       <c r="G91" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H91" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3576,7 +3573,7 @@
         <v>244</v>
       </c>
       <c r="H92" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3599,10 +3596,10 @@
         <v>224</v>
       </c>
       <c r="G93" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H93" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3680,7 +3677,7 @@
         <v>242</v>
       </c>
       <c r="H96" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3755,10 +3752,10 @@
         <v>227</v>
       </c>
       <c r="G99" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H99" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3807,10 +3804,10 @@
         <v>228</v>
       </c>
       <c r="G101" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H101" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
